--- a/data_sootv.xlsx
+++ b/data_sootv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\tabl-to-docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd\tabl-to-docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5609B73-E433-4DFC-AD71-7F015D30707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF1321A-32E3-4B17-B3D4-707E4A7A98C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D1F4F840-5BBD-4849-B3FB-3F2CA3FE72E5}"/>
+    <workbookView xWindow="5790" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{D1F4F840-5BBD-4849-B3FB-3F2CA3FE72E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Компания</t>
   </si>
@@ -46,16 +46,31 @@
   </si>
   <si>
     <t>24-123</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>gimonchik@gimonchik.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -79,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5CB933-5301-428E-A18A-15880EF0CBEF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +437,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,8 +454,14 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5E7D6AAA-A708-4EBF-837E-1F30A3525827}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>